--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/destroybase/5/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/destroybase/5/LocalizationDef.xlsx
@@ -770,7 +770,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
@@ -1075,2134 +1076,2134 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="60.42578125" customWidth="1" style="1"/>
+    <col min="1" max="3" width="60.42578125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/destroybase/5/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/destroybase/5/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>DestroyBase_Eviction.contractName</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Your target is the nearby {TEAM_TAR.FactionDef.Demonym} base.</t>
   </si>
   <si>
+    <t>Your target is the nearby {TEAM_TAR.FactionDef.Name} base.</t>
+  </si>
+  <si>
     <t>DestroyBase_Eviction.dialogueList0.dialogueContent1.words</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>Destroy the {TEAM_TAR.FactionDef.Demonym} Facility</t>
   </si>
   <si>
+    <t>Destroy the {TEAM_TAR.FactionDef.Name} Facility</t>
+  </si>
+  <si>
     <t>DestroyBase_Eviction.objectiveList1.title</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>Destroy {TEAM_TAR.FactionDef.Demonym} Reinforcements</t>
   </si>
   <si>
+    <t>Destroy {TEAM_TAR.FactionDef.Name} Reinforcements</t>
+  </si>
+  <si>
     <t>DestroyBase_Eviction.objectiveList4.title</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>The {TEAM_TAR.FactionDef.Demonym} manufacturing facility on {TGT_SYSTEM.name} is an illegal intrusion into our territory, and a cover for military personnel and units. Our efforts to resolve this through diplomatic channels have been rebuffed, so we are now turning to a military solution. The facility must be destroyed.</t>
   </si>
   <si>
+    <t>The {TEAM_TAR.FactionDef.Name} manufacturing facility on {TGT_SYSTEM.name} is an illegal intrusion into our territory, and a cover for military personnel and units. Our efforts to resolve this through diplomatic channels have been rebuffed, so we are now turning to a military solution. The facility must be destroyed.</t>
+  </si>
+  <si>
     <t>DestroyBase_FactoryRecall.contractName</t>
   </si>
   <si>
@@ -142,6 +154,9 @@
     <t>Okay, folks, I've spotted another DropShip in the area, with {TEAM_TAR.FactionDef.Demonym} markings. So now we know who we're fighting.</t>
   </si>
   <si>
+    <t>Okay, folks, I've spotted another DropShip in the area, with {TEAM_TAR.FactionDef.Name} markings. So now we know who we're fighting.</t>
+  </si>
+  <si>
     <t>DestroyBase_FactoryRecall.dialogueList0.dialogueContent1.words</t>
   </si>
   <si>
@@ -457,6 +472,9 @@
     <t>A consortium of {TEAM_EMP.FactionDef.Demonym} manufacturers has been losing ground to a {TEAM_TAR.FactionDef.Demonym} competitor every fiscal quarter for years. It's time to turn the tables with one well-timed strike at the primary {TEAM_TAR.FactionDef.Demonym} manufacturing plant here in the {TGT_SYSTEM.name} system.</t>
   </si>
   <si>
+    <t>A consortium of {TEAM_EMP.FactionDef.Name} manufacturers has been losing ground to a {TEAM_TAR.FactionDef.Name} competitor every fiscal quarter for years. It's time to turn the tables with one well-timed strike at the primary {TEAM_TAR.FactionDef.Name} manufacturing plant here in the {TGT_SYSTEM.name} system.</t>
+  </si>
+  <si>
     <t>DestroyBase_IncompleteIntel.contractName</t>
   </si>
   <si>
@@ -481,6 +499,9 @@
     <t>Be wary of any {TEAM_TAR.FactionDef.Demonym} defenders, and additional patrols in the area. Good hunting, Commander.</t>
   </si>
   <si>
+    <t>Be wary of any {TEAM_TAR.FactionDef.Name} defenders, and additional patrols in the area. Good hunting, Commander.</t>
+  </si>
+  <si>
     <t>DestroyBase_IncompleteIntel.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -544,6 +565,9 @@
     <t>Our {TEAM_TAR.FactionDef.Demonym} enemies are hiding restricted munitions in a series of warehouses used to distribute medical supplies. We would make a public accusation that they're hiding munitions in medical supplies, but that would reveal the source of our intel. Instead, we need you to go in and do what we cannot: destroy the warehouses.</t>
   </si>
   <si>
+    <t>Our {TEAM_TAR.FactionDef.Name} enemies are hiding restricted munitions in a series of warehouses used to distribute medical supplies. We would make a public accusation that they're hiding munitions in medical supplies, but that would reveal the source of our intel. Instead, we need you to go in and do what we cannot: destroy the warehouses.</t>
+  </si>
+  <si>
     <t>DestroyBase_Liberation.contractName</t>
   </si>
   <si>
@@ -643,6 +667,9 @@
     <t>A heavily armed pirate band has taken control of a facility on {TGT_SYSTEM.Name} and are using it as a base of operations for raiding and terrorizing nearby settlements. The {TEAM_EMP.FactionDef.Demonym} authorities do not have the local military resources to assault the base, given how extensively they've entrenched. We need you to destroy the base so that they can no longer use it as a staging area for their criminal acts.</t>
   </si>
   <si>
+    <t>A heavily armed pirate band has taken control of a facility on {TGT_SYSTEM.Name} and are using it as a base of operations for raiding and terrorizing nearby settlements. The {TEAM_EMP.FactionDef.Name} authorities do not have the local military resources to assault the base, given how extensively they've entrenched. We need you to destroy the base so that they can no longer use it as a staging area for their criminal acts.</t>
+  </si>
+  <si>
     <t>DestroyBase_Pirate_HideTheEvidence.contractName</t>
   </si>
   <si>
@@ -737,6 +764,9 @@
   </si>
   <si>
     <t>We had a few associates go missing recently, and where should they happen to turn up but a {TEAM_TAR.FactionDef.Demonym} black site? We have to assume they're being interrogated right now. Normally, we'd be extremely concerned for their welfare and we'd try to rescue them, but in this case it seems likely they're beyond rescue. We need you to level that black site, to ensure any secrets they've spilled are erased.</t>
+  </si>
+  <si>
+    <t>We had a few associates go missing recently, and where should they happen to turn up but a {TEAM_TAR.FactionDef.Name} black site? We have to assume they're being interrogated right now. Normally, we'd be extremely concerned for their welfare and we'd try to rescue them, but in this case it seems likely they're beyond rescue. We need you to level that black site, to ensure any secrets they've spilled are erased.</t>
   </si>
 </sst>
 </file>
@@ -770,7 +800,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1071,7 +1102,7 @@
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1101,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1109,13 +1140,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1123,13 +1154,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -1137,13 +1168,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -1151,13 +1182,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
@@ -1165,13 +1196,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -1179,13 +1210,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -1193,13 +1224,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
@@ -1207,13 +1238,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2</v>
@@ -1221,13 +1252,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -1235,13 +1266,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
@@ -1249,13 +1280,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>2</v>
@@ -1263,13 +1294,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
@@ -1277,13 +1308,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
@@ -1291,13 +1322,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
@@ -1305,13 +1336,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2</v>
@@ -1319,13 +1350,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2</v>
@@ -1333,13 +1364,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2</v>
@@ -1347,13 +1378,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2</v>
@@ -1361,13 +1392,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>2</v>
@@ -1375,13 +1406,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>2</v>
@@ -1389,13 +1420,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
@@ -1403,13 +1434,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>2</v>
@@ -1417,13 +1448,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
@@ -1431,13 +1462,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>2</v>
@@ -1445,13 +1476,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>2</v>
@@ -1459,13 +1490,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>2</v>
@@ -1473,13 +1504,13 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>2</v>
@@ -1487,13 +1518,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
@@ -1501,13 +1532,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>2</v>
@@ -1515,13 +1546,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>2</v>
@@ -1529,13 +1560,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>2</v>
@@ -1543,13 +1574,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>2</v>
@@ -1557,13 +1588,13 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>2</v>
@@ -1571,13 +1602,13 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>2</v>
@@ -1585,13 +1616,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>2</v>
@@ -1599,13 +1630,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>2</v>
@@ -1613,13 +1644,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>2</v>
@@ -1627,13 +1658,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>2</v>
@@ -1641,13 +1672,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>2</v>
@@ -1655,13 +1686,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>2</v>
@@ -1669,13 +1700,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>2</v>
@@ -1683,13 +1714,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>2</v>
@@ -1697,13 +1728,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>2</v>
@@ -1711,13 +1742,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>2</v>
@@ -1725,13 +1756,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
@@ -1739,13 +1770,13 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>2</v>
@@ -1753,13 +1784,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>2</v>
@@ -1767,13 +1798,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>2</v>
@@ -1781,13 +1812,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>2</v>
@@ -1795,13 +1826,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>2</v>
@@ -1809,13 +1840,13 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>2</v>
@@ -1823,13 +1854,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>2</v>
@@ -1837,13 +1868,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>2</v>
@@ -1851,13 +1882,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>2</v>
@@ -1865,13 +1896,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>2</v>
@@ -1879,13 +1910,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>2</v>
@@ -1893,13 +1924,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>2</v>
@@ -1907,13 +1938,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>2</v>
@@ -1921,13 +1952,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>2</v>
@@ -1935,13 +1966,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>2</v>
@@ -1949,13 +1980,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>2</v>
@@ -1963,13 +1994,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>2</v>
@@ -1977,13 +2008,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>2</v>
@@ -1991,13 +2022,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>2</v>
@@ -2005,13 +2036,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>2</v>
@@ -2019,13 +2050,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>2</v>
@@ -2033,13 +2064,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>2</v>
@@ -2047,13 +2078,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>2</v>
@@ -2061,13 +2092,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>2</v>
@@ -2075,13 +2106,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>2</v>
@@ -2089,13 +2120,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>2</v>
@@ -2103,13 +2134,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>2</v>
@@ -2117,13 +2148,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>2</v>
@@ -2131,13 +2162,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>2</v>
@@ -2145,13 +2176,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>2</v>
@@ -2159,13 +2190,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>2</v>
@@ -2173,13 +2204,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>2</v>
@@ -2187,13 +2218,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>2</v>
@@ -2201,13 +2232,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>2</v>
@@ -2215,13 +2246,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>2</v>
@@ -2229,13 +2260,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>2</v>
@@ -2243,13 +2274,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>2</v>
@@ -2257,13 +2288,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>2</v>
@@ -2271,13 +2302,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>2</v>
@@ -2285,13 +2316,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>2</v>
@@ -2299,13 +2330,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>2</v>
@@ -2313,13 +2344,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>2</v>
@@ -2327,13 +2358,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>2</v>
@@ -2341,13 +2372,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>2</v>
@@ -2355,13 +2386,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>2</v>
@@ -2369,13 +2400,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>2</v>
@@ -2383,13 +2414,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>2</v>
@@ -2397,13 +2428,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>2</v>
@@ -2411,13 +2442,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>2</v>
@@ -2425,13 +2456,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>2</v>
@@ -2439,13 +2470,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>2</v>
@@ -2453,13 +2484,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>2</v>
@@ -2467,13 +2498,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>2</v>
@@ -2481,13 +2512,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>2</v>
@@ -2495,13 +2526,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>2</v>
@@ -2509,13 +2540,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>2</v>
@@ -2523,13 +2554,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>2</v>
@@ -2537,13 +2568,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>2</v>
@@ -2551,13 +2582,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>2</v>
@@ -2565,13 +2596,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>2</v>
@@ -2579,13 +2610,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>2</v>
@@ -2593,13 +2624,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>2</v>
@@ -2607,13 +2638,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>2</v>
@@ -2621,13 +2652,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>2</v>
@@ -2635,13 +2666,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>2</v>
@@ -2649,13 +2680,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>2</v>
@@ -2663,13 +2694,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>2</v>
@@ -2677,13 +2708,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>2</v>
@@ -2691,13 +2722,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>2</v>
@@ -2705,13 +2736,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>2</v>
@@ -2719,13 +2750,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>2</v>
@@ -2733,13 +2764,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>2</v>
@@ -2747,13 +2778,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>2</v>
@@ -2761,13 +2792,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>2</v>
@@ -2775,13 +2806,13 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>2</v>
@@ -2789,13 +2820,13 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>2</v>
@@ -2803,13 +2834,13 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>2</v>
@@ -2817,13 +2848,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>2</v>
@@ -2831,13 +2862,13 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>2</v>
@@ -2845,13 +2876,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>2</v>
@@ -2859,13 +2890,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>2</v>
@@ -2873,13 +2904,13 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>2</v>
@@ -2887,13 +2918,13 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>2</v>
@@ -2901,13 +2932,13 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>2</v>
@@ -2915,13 +2946,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>2</v>
@@ -2929,13 +2960,13 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>2</v>
@@ -2943,13 +2974,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>2</v>
@@ -2957,13 +2988,13 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>2</v>
@@ -2971,13 +3002,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>2</v>
@@ -2985,13 +3016,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>2</v>
@@ -2999,13 +3030,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>2</v>
@@ -3013,13 +3044,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>2</v>
@@ -3027,13 +3058,13 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>2</v>
@@ -3041,13 +3072,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>2</v>
@@ -3055,13 +3086,13 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>2</v>
@@ -3069,13 +3100,13 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>2</v>
@@ -3083,13 +3114,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>2</v>
@@ -3097,13 +3128,13 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>2</v>
@@ -3111,13 +3142,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>2</v>
@@ -3125,13 +3156,13 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>2</v>
@@ -3139,13 +3170,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>2</v>
@@ -3153,13 +3184,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>2</v>
@@ -3167,13 +3198,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>2</v>
@@ -3181,13 +3212,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>2</v>
@@ -3195,13 +3226,13 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>2</v>
